--- a/biology/Zoologie/Feaellinae/Feaellinae.xlsx
+++ b/biology/Zoologie/Feaellinae/Feaellinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Feaellinae sont une sous-famille de pseudoscorpions de la famille des Feaellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Afrique subsaharienne, en Asie du Sud, au Brésil et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Afrique subsaharienne, en Asie du Sud, au Brésil et en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Lorenz, Loria, Harvey et Harms en 2022[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Lorenz, Loria, Harvey et Harms en 2022 :
 Antsirananaella Lorenz, Loria, Harvey &amp; Harms, 2022
 Feaella Ellingsen, 1906
 Iporangella Harvey, Andrade &amp; Pinto-da-Rocha, 2016
@@ -577,7 +593,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-famille a été décrite par Ellingsen en 1906.
 </t>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ellingsen, 1906 : « Report on the pseudoscorpions of the Guinea Coast (Africa) collected by Leonardo Fea. » Annali del Museo Civico di Storia Naturale di Genova, sér. 3, vol. 2, p. 243-265.</t>
         </is>
